--- a/published-data/fonds-solidarite/fds-2021-10-20/fonds-solidarite-volet-1-regional-categorie-juridique-latest.xlsx
+++ b/published-data/fonds-solidarite/fds-2021-10-20/fonds-solidarite-volet-1-regional-categorie-juridique-latest.xlsx
@@ -492,13 +492,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>763736</v>
+        <v>763906</v>
       </c>
       <c r="D2" t="n">
         <v>155941</v>
       </c>
       <c r="E2" t="n">
-        <v>1425621318</v>
+        <v>1425853020</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -533,13 +533,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>753</v>
+        <v>756</v>
       </c>
       <c r="D3" t="n">
         <v>162</v>
       </c>
       <c r="E3" t="n">
-        <v>2114829</v>
+        <v>2115993</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -574,13 +574,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="D4" t="n">
         <v>177</v>
       </c>
       <c r="E4" t="n">
-        <v>4756042</v>
+        <v>4756467</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -738,13 +738,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4133</v>
+        <v>4136</v>
       </c>
       <c r="D8" t="n">
         <v>619</v>
       </c>
       <c r="E8" t="n">
-        <v>29603967</v>
+        <v>29606992</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -820,13 +820,13 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>342052</v>
+        <v>342265</v>
       </c>
       <c r="D10" t="n">
         <v>64146</v>
       </c>
       <c r="E10" t="n">
-        <v>1793993153</v>
+        <v>1794848844</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -861,13 +861,13 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1223</v>
+        <v>1225</v>
       </c>
       <c r="D11" t="n">
         <v>252</v>
       </c>
       <c r="E11" t="n">
-        <v>43519979</v>
+        <v>43566068</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -943,13 +943,13 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>185613</v>
+        <v>185764</v>
       </c>
       <c r="D13" t="n">
         <v>33220</v>
       </c>
       <c r="E13" t="n">
-        <v>1132480319</v>
+        <v>1133915854</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -1066,13 +1066,13 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>10116</v>
+        <v>10120</v>
       </c>
       <c r="D16" t="n">
         <v>2989</v>
       </c>
       <c r="E16" t="n">
-        <v>27840919</v>
+        <v>27849183</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -1189,13 +1189,13 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>27096</v>
+        <v>27108</v>
       </c>
       <c r="D19" t="n">
         <v>4204</v>
       </c>
       <c r="E19" t="n">
-        <v>126447292</v>
+        <v>126510150</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -1271,13 +1271,13 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>174697</v>
+        <v>174738</v>
       </c>
       <c r="D21" t="n">
         <v>38052</v>
       </c>
       <c r="E21" t="n">
-        <v>316271026</v>
+        <v>316298207</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -1476,13 +1476,13 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>1232</v>
+        <v>1233</v>
       </c>
       <c r="D26" t="n">
         <v>171</v>
       </c>
       <c r="E26" t="n">
-        <v>6494370</v>
+        <v>6498293</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -1517,13 +1517,13 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>89259</v>
+        <v>89308</v>
       </c>
       <c r="D27" t="n">
         <v>17554</v>
       </c>
       <c r="E27" t="n">
-        <v>439502651</v>
+        <v>439620548</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -1640,13 +1640,13 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>34709</v>
+        <v>34732</v>
       </c>
       <c r="D30" t="n">
         <v>6526</v>
       </c>
       <c r="E30" t="n">
-        <v>189840958</v>
+        <v>189967520</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -1845,13 +1845,13 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>6893</v>
+        <v>6902</v>
       </c>
       <c r="D35" t="n">
         <v>1092</v>
       </c>
       <c r="E35" t="n">
-        <v>31636851</v>
+        <v>31945754</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
@@ -1886,13 +1886,13 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>210559</v>
+        <v>210617</v>
       </c>
       <c r="D36" t="n">
         <v>48176</v>
       </c>
       <c r="E36" t="n">
-        <v>403649936</v>
+        <v>403685070</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
@@ -2009,13 +2009,13 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4983</v>
+        <v>4986</v>
       </c>
       <c r="D39" t="n">
         <v>647</v>
       </c>
       <c r="E39" t="n">
-        <v>32765669</v>
+        <v>32773727</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
@@ -2091,13 +2091,13 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>125936</v>
+        <v>126016</v>
       </c>
       <c r="D41" t="n">
         <v>24256</v>
       </c>
       <c r="E41" t="n">
-        <v>658086423</v>
+        <v>658329778</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
@@ -2214,13 +2214,13 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>29145</v>
+        <v>29160</v>
       </c>
       <c r="D44" t="n">
         <v>5524</v>
       </c>
       <c r="E44" t="n">
-        <v>195099060</v>
+        <v>195167481</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
@@ -2296,13 +2296,13 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2840</v>
+        <v>2841</v>
       </c>
       <c r="D46" t="n">
         <v>833</v>
       </c>
       <c r="E46" t="n">
-        <v>8256838</v>
+        <v>8260994</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
@@ -2337,13 +2337,13 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>9326</v>
+        <v>9334</v>
       </c>
       <c r="D47" t="n">
         <v>1469</v>
       </c>
       <c r="E47" t="n">
-        <v>44301313</v>
+        <v>44322877</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
@@ -2378,13 +2378,13 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>150118</v>
+        <v>150164</v>
       </c>
       <c r="D48" t="n">
         <v>33529</v>
       </c>
       <c r="E48" t="n">
-        <v>275155729</v>
+        <v>275189758</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
@@ -2542,13 +2542,13 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>1738</v>
+        <v>1739</v>
       </c>
       <c r="D52" t="n">
         <v>257</v>
       </c>
       <c r="E52" t="n">
-        <v>10088977</v>
+        <v>10091341</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
@@ -2624,13 +2624,13 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>74589</v>
+        <v>74632</v>
       </c>
       <c r="D54" t="n">
         <v>14914</v>
       </c>
       <c r="E54" t="n">
-        <v>357777911</v>
+        <v>357924525</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
@@ -2747,13 +2747,13 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>31345</v>
+        <v>31365</v>
       </c>
       <c r="D57" t="n">
         <v>6016</v>
       </c>
       <c r="E57" t="n">
-        <v>159993903</v>
+        <v>160153724</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
@@ -2911,13 +2911,13 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>6052</v>
+        <v>6055</v>
       </c>
       <c r="D61" t="n">
         <v>1014</v>
       </c>
       <c r="E61" t="n">
-        <v>25055389</v>
+        <v>25071824</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
@@ -2993,13 +2993,13 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>49077</v>
+        <v>49087</v>
       </c>
       <c r="D63" t="n">
         <v>9528</v>
       </c>
       <c r="E63" t="n">
-        <v>103288293</v>
+        <v>103296270</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
@@ -3116,13 +3116,13 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D66" t="n">
         <v>37</v>
       </c>
       <c r="E66" t="n">
-        <v>1416011</v>
+        <v>1416612</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
@@ -3157,13 +3157,13 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>26940</v>
+        <v>26950</v>
       </c>
       <c r="D67" t="n">
         <v>4262</v>
       </c>
       <c r="E67" t="n">
-        <v>166950568</v>
+        <v>167121007</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
@@ -3239,13 +3239,13 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>17764</v>
+        <v>17769</v>
       </c>
       <c r="D69" t="n">
         <v>2906</v>
       </c>
       <c r="E69" t="n">
-        <v>103108386</v>
+        <v>103112392</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
@@ -3280,13 +3280,13 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>1370</v>
+        <v>1372</v>
       </c>
       <c r="D70" t="n">
         <v>265</v>
       </c>
       <c r="E70" t="n">
-        <v>3955308</v>
+        <v>3956457</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
@@ -3362,13 +3362,13 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>330090</v>
+        <v>330165</v>
       </c>
       <c r="D72" t="n">
         <v>71636</v>
       </c>
       <c r="E72" t="n">
-        <v>633805510</v>
+        <v>633856739</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
@@ -3526,13 +3526,13 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2160</v>
+        <v>2162</v>
       </c>
       <c r="D76" t="n">
         <v>312</v>
       </c>
       <c r="E76" t="n">
-        <v>12762555</v>
+        <v>12764884</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
@@ -3608,13 +3608,13 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>176739</v>
+        <v>176852</v>
       </c>
       <c r="D78" t="n">
         <v>34680</v>
       </c>
       <c r="E78" t="n">
-        <v>884443979</v>
+        <v>884862671</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
@@ -3649,13 +3649,13 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="D79" t="n">
         <v>128</v>
       </c>
       <c r="E79" t="n">
-        <v>19469855</v>
+        <v>19677074</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
@@ -3731,13 +3731,13 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>87414</v>
+        <v>87481</v>
       </c>
       <c r="D81" t="n">
         <v>16585</v>
       </c>
       <c r="E81" t="n">
-        <v>489617514</v>
+        <v>490457010</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
@@ -3854,13 +3854,13 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>27756</v>
+        <v>27767</v>
       </c>
       <c r="D84" t="n">
         <v>6722</v>
       </c>
       <c r="E84" t="n">
-        <v>157993297</v>
+        <v>158049049</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
@@ -3936,13 +3936,13 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>11098</v>
+        <v>11109</v>
       </c>
       <c r="D86" t="n">
         <v>1742</v>
       </c>
       <c r="E86" t="n">
-        <v>49838421</v>
+        <v>49984130</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
@@ -4018,13 +4018,13 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>67797</v>
+        <v>67989</v>
       </c>
       <c r="D88" t="n">
         <v>12343</v>
       </c>
       <c r="E88" t="n">
-        <v>106121653</v>
+        <v>106411183</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
@@ -4141,13 +4141,13 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>17131</v>
+        <v>17200</v>
       </c>
       <c r="D91" t="n">
         <v>3347</v>
       </c>
       <c r="E91" t="n">
-        <v>61529935</v>
+        <v>61849998</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
@@ -4182,13 +4182,13 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D92" t="n">
         <v>8</v>
       </c>
       <c r="E92" t="n">
-        <v>2250819</v>
+        <v>2450819</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
@@ -4223,13 +4223,13 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>15561</v>
+        <v>15610</v>
       </c>
       <c r="D93" t="n">
         <v>2884</v>
       </c>
       <c r="E93" t="n">
-        <v>42909956</v>
+        <v>43070687</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
@@ -4264,13 +4264,13 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>960</v>
+        <v>964</v>
       </c>
       <c r="D94" t="n">
         <v>202</v>
       </c>
       <c r="E94" t="n">
-        <v>1681189</v>
+        <v>1687189</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
@@ -4305,13 +4305,13 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="D95" t="n">
         <v>197</v>
       </c>
       <c r="E95" t="n">
-        <v>1568714</v>
+        <v>1578714</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
@@ -4346,13 +4346,13 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>27922</v>
+        <v>28036</v>
       </c>
       <c r="D96" t="n">
         <v>3787</v>
       </c>
       <c r="E96" t="n">
-        <v>54065761</v>
+        <v>54219796</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
@@ -4428,13 +4428,13 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5837</v>
+        <v>5850</v>
       </c>
       <c r="D98" t="n">
         <v>909</v>
       </c>
       <c r="E98" t="n">
-        <v>17167509</v>
+        <v>17208341</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
@@ -4510,13 +4510,13 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>8726</v>
+        <v>8740</v>
       </c>
       <c r="D100" t="n">
         <v>1293</v>
       </c>
       <c r="E100" t="n">
-        <v>21715167</v>
+        <v>21742520</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
@@ -4674,13 +4674,13 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>318397</v>
+        <v>318484</v>
       </c>
       <c r="D104" t="n">
         <v>67899</v>
       </c>
       <c r="E104" t="n">
-        <v>560459369</v>
+        <v>560524843</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
@@ -4920,13 +4920,13 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>4867</v>
+        <v>4883</v>
       </c>
       <c r="D110" t="n">
         <v>620</v>
       </c>
       <c r="E110" t="n">
-        <v>28932116</v>
+        <v>29244391</v>
       </c>
       <c r="F110" t="inlineStr">
         <is>
@@ -5002,13 +5002,13 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>143963</v>
+        <v>144059</v>
       </c>
       <c r="D112" t="n">
         <v>27833</v>
       </c>
       <c r="E112" t="n">
-        <v>708544151</v>
+        <v>709276866</v>
       </c>
       <c r="F112" t="inlineStr">
         <is>
@@ -5125,13 +5125,13 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>81046</v>
+        <v>81109</v>
       </c>
       <c r="D115" t="n">
         <v>14440</v>
       </c>
       <c r="E115" t="n">
-        <v>429302221</v>
+        <v>429546116</v>
       </c>
       <c r="F115" t="inlineStr">
         <is>
@@ -5248,13 +5248,13 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>3735</v>
+        <v>3736</v>
       </c>
       <c r="D118" t="n">
         <v>1092</v>
       </c>
       <c r="E118" t="n">
-        <v>12240332</v>
+        <v>12240752</v>
       </c>
       <c r="F118" t="inlineStr">
         <is>
@@ -5289,13 +5289,13 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>8895</v>
+        <v>8900</v>
       </c>
       <c r="D119" t="n">
         <v>1425</v>
       </c>
       <c r="E119" t="n">
-        <v>36621077</v>
+        <v>36670480</v>
       </c>
       <c r="F119" t="inlineStr">
         <is>
@@ -5371,13 +5371,13 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>1298445</v>
+        <v>1298971</v>
       </c>
       <c r="D121" t="n">
         <v>220319</v>
       </c>
       <c r="E121" t="n">
-        <v>2262990760</v>
+        <v>2263593179</v>
       </c>
       <c r="F121" t="inlineStr">
         <is>
@@ -5535,13 +5535,13 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D125" t="n">
         <v>13</v>
       </c>
       <c r="E125" t="n">
-        <v>459036</v>
+        <v>461839</v>
       </c>
       <c r="F125" t="inlineStr">
         <is>
@@ -5617,13 +5617,13 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>8835</v>
+        <v>8855</v>
       </c>
       <c r="D127" t="n">
         <v>1296</v>
       </c>
       <c r="E127" t="n">
-        <v>105500904</v>
+        <v>105668680</v>
       </c>
       <c r="F127" t="inlineStr">
         <is>
@@ -5658,13 +5658,13 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D128" t="n">
         <v>39</v>
       </c>
       <c r="E128" t="n">
-        <v>5496455</v>
+        <v>5499030</v>
       </c>
       <c r="F128" t="inlineStr">
         <is>
@@ -5699,13 +5699,13 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>622196</v>
+        <v>622887</v>
       </c>
       <c r="D129" t="n">
         <v>104889</v>
       </c>
       <c r="E129" t="n">
-        <v>3307238684</v>
+        <v>3312796307</v>
       </c>
       <c r="F129" t="inlineStr">
         <is>
@@ -5740,13 +5740,13 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>4039</v>
+        <v>4054</v>
       </c>
       <c r="D130" t="n">
         <v>616</v>
       </c>
       <c r="E130" t="n">
-        <v>127135464</v>
+        <v>127566144</v>
       </c>
       <c r="F130" t="inlineStr">
         <is>
@@ -5781,13 +5781,13 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="D131" t="n">
         <v>60</v>
       </c>
       <c r="E131" t="n">
-        <v>17444398</v>
+        <v>17509839</v>
       </c>
       <c r="F131" t="inlineStr">
         <is>
@@ -5822,13 +5822,13 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>575218</v>
+        <v>575837</v>
       </c>
       <c r="D132" t="n">
         <v>90658</v>
       </c>
       <c r="E132" t="n">
-        <v>3271238973</v>
+        <v>3278796228</v>
       </c>
       <c r="F132" t="inlineStr">
         <is>
@@ -5904,13 +5904,13 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>6908</v>
+        <v>6915</v>
       </c>
       <c r="D134" t="n">
         <v>1674</v>
       </c>
       <c r="E134" t="n">
-        <v>16392883</v>
+        <v>16412136</v>
       </c>
       <c r="F134" t="inlineStr">
         <is>
@@ -5986,13 +5986,13 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>26116</v>
+        <v>26140</v>
       </c>
       <c r="D136" t="n">
         <v>4265</v>
       </c>
       <c r="E136" t="n">
-        <v>133380533</v>
+        <v>133563292</v>
       </c>
       <c r="F136" t="inlineStr">
         <is>
@@ -6109,13 +6109,13 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>75533</v>
+        <v>75579</v>
       </c>
       <c r="D139" t="n">
         <v>17492</v>
       </c>
       <c r="E139" t="n">
-        <v>112959913</v>
+        <v>113007612</v>
       </c>
       <c r="F139" t="inlineStr">
         <is>
@@ -6314,13 +6314,13 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>24022</v>
+        <v>24057</v>
       </c>
       <c r="D144" t="n">
         <v>6159</v>
       </c>
       <c r="E144" t="n">
-        <v>83492502</v>
+        <v>83694255</v>
       </c>
       <c r="F144" t="inlineStr">
         <is>
@@ -6396,13 +6396,13 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>7094</v>
+        <v>7105</v>
       </c>
       <c r="D146" t="n">
         <v>1663</v>
       </c>
       <c r="E146" t="n">
-        <v>31106301</v>
+        <v>31259212</v>
       </c>
       <c r="F146" t="inlineStr">
         <is>
@@ -6601,13 +6601,13 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>36952</v>
+        <v>37037</v>
       </c>
       <c r="D151" t="n">
         <v>7124</v>
       </c>
       <c r="E151" t="n">
-        <v>57087661</v>
+        <v>57194904</v>
       </c>
       <c r="F151" t="inlineStr">
         <is>
@@ -6724,13 +6724,13 @@
         </is>
       </c>
       <c r="C154" t="n">
-        <v>16286</v>
+        <v>16335</v>
       </c>
       <c r="D154" t="n">
         <v>3269</v>
       </c>
       <c r="E154" t="n">
-        <v>58717960</v>
+        <v>59004237</v>
       </c>
       <c r="F154" t="inlineStr">
         <is>
@@ -6806,13 +6806,13 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>11183</v>
+        <v>11215</v>
       </c>
       <c r="D156" t="n">
         <v>2130</v>
       </c>
       <c r="E156" t="n">
-        <v>33545949</v>
+        <v>33663369</v>
       </c>
       <c r="F156" t="inlineStr">
         <is>
@@ -6847,13 +6847,13 @@
         </is>
       </c>
       <c r="C157" t="n">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="D157" t="n">
         <v>132</v>
       </c>
       <c r="E157" t="n">
-        <v>1090843</v>
+        <v>1092371</v>
       </c>
       <c r="F157" t="inlineStr">
         <is>
@@ -6888,13 +6888,13 @@
         </is>
       </c>
       <c r="C158" t="n">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="D158" t="n">
         <v>130</v>
       </c>
       <c r="E158" t="n">
-        <v>1498711</v>
+        <v>1501442</v>
       </c>
       <c r="F158" t="inlineStr">
         <is>
@@ -6929,13 +6929,13 @@
         </is>
       </c>
       <c r="C159" t="n">
-        <v>43758</v>
+        <v>43762</v>
       </c>
       <c r="D159" t="n">
         <v>5415</v>
       </c>
       <c r="E159" t="n">
-        <v>101236536</v>
+        <v>101239396</v>
       </c>
       <c r="F159" t="inlineStr">
         <is>
@@ -6970,13 +6970,13 @@
         </is>
       </c>
       <c r="C160" t="n">
-        <v>4208</v>
+        <v>4214</v>
       </c>
       <c r="D160" t="n">
         <v>681</v>
       </c>
       <c r="E160" t="n">
-        <v>12379464</v>
+        <v>12389517</v>
       </c>
       <c r="F160" t="inlineStr">
         <is>
@@ -7134,13 +7134,13 @@
         </is>
       </c>
       <c r="C164" t="n">
-        <v>195528</v>
+        <v>195577</v>
       </c>
       <c r="D164" t="n">
         <v>42630</v>
       </c>
       <c r="E164" t="n">
-        <v>369584973</v>
+        <v>369618987</v>
       </c>
       <c r="F164" t="inlineStr">
         <is>
@@ -7339,13 +7339,13 @@
         </is>
       </c>
       <c r="C169" t="n">
-        <v>3523</v>
+        <v>3524</v>
       </c>
       <c r="D169" t="n">
         <v>500</v>
       </c>
       <c r="E169" t="n">
-        <v>23951205</v>
+        <v>23956724</v>
       </c>
       <c r="F169" t="inlineStr">
         <is>
@@ -7421,13 +7421,13 @@
         </is>
       </c>
       <c r="C171" t="n">
-        <v>95069</v>
+        <v>95132</v>
       </c>
       <c r="D171" t="n">
         <v>18301</v>
       </c>
       <c r="E171" t="n">
-        <v>486831488</v>
+        <v>487027704</v>
       </c>
       <c r="F171" t="inlineStr">
         <is>
@@ -7544,13 +7544,13 @@
         </is>
       </c>
       <c r="C174" t="n">
-        <v>40054</v>
+        <v>40071</v>
       </c>
       <c r="D174" t="n">
         <v>7181</v>
       </c>
       <c r="E174" t="n">
-        <v>235913336</v>
+        <v>235968872</v>
       </c>
       <c r="F174" t="inlineStr">
         <is>
@@ -7667,13 +7667,13 @@
         </is>
       </c>
       <c r="C177" t="n">
-        <v>6872</v>
+        <v>6881</v>
       </c>
       <c r="D177" t="n">
         <v>1158</v>
       </c>
       <c r="E177" t="n">
-        <v>30287497</v>
+        <v>30373121</v>
       </c>
       <c r="F177" t="inlineStr">
         <is>
@@ -7708,13 +7708,13 @@
         </is>
       </c>
       <c r="C178" t="n">
-        <v>514395</v>
+        <v>514496</v>
       </c>
       <c r="D178" t="n">
         <v>115366</v>
       </c>
       <c r="E178" t="n">
-        <v>889524320</v>
+        <v>889606727</v>
       </c>
       <c r="F178" t="inlineStr">
         <is>
@@ -7954,13 +7954,13 @@
         </is>
       </c>
       <c r="C184" t="n">
-        <v>3609</v>
+        <v>3612</v>
       </c>
       <c r="D184" t="n">
         <v>565</v>
       </c>
       <c r="E184" t="n">
-        <v>22647327</v>
+        <v>22658827</v>
       </c>
       <c r="F184" t="inlineStr">
         <is>
@@ -8036,13 +8036,13 @@
         </is>
       </c>
       <c r="C186" t="n">
-        <v>234722</v>
+        <v>234867</v>
       </c>
       <c r="D186" t="n">
         <v>46301</v>
       </c>
       <c r="E186" t="n">
-        <v>1176691943</v>
+        <v>1177209832</v>
       </c>
       <c r="F186" t="inlineStr">
         <is>
@@ -8159,13 +8159,13 @@
         </is>
       </c>
       <c r="C189" t="n">
-        <v>99426</v>
+        <v>99497</v>
       </c>
       <c r="D189" t="n">
         <v>18340</v>
       </c>
       <c r="E189" t="n">
-        <v>545529040</v>
+        <v>545970943</v>
       </c>
       <c r="F189" t="inlineStr">
         <is>
@@ -8282,13 +8282,13 @@
         </is>
       </c>
       <c r="C192" t="n">
-        <v>16972</v>
+        <v>16988</v>
       </c>
       <c r="D192" t="n">
         <v>4264</v>
       </c>
       <c r="E192" t="n">
-        <v>84816076</v>
+        <v>84852144</v>
       </c>
       <c r="F192" t="inlineStr">
         <is>
@@ -8364,13 +8364,13 @@
         </is>
       </c>
       <c r="C194" t="n">
-        <v>18161</v>
+        <v>18169</v>
       </c>
       <c r="D194" t="n">
         <v>2988</v>
       </c>
       <c r="E194" t="n">
-        <v>69791123</v>
+        <v>69812863</v>
       </c>
       <c r="F194" t="inlineStr">
         <is>
@@ -8446,13 +8446,13 @@
         </is>
       </c>
       <c r="C196" t="n">
-        <v>593913</v>
+        <v>594044</v>
       </c>
       <c r="D196" t="n">
         <v>127112</v>
       </c>
       <c r="E196" t="n">
-        <v>982628876</v>
+        <v>982707062</v>
       </c>
       <c r="F196" t="inlineStr">
         <is>
@@ -8487,13 +8487,13 @@
         </is>
       </c>
       <c r="C197" t="n">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D197" t="n">
         <v>75</v>
       </c>
       <c r="E197" t="n">
-        <v>817819</v>
+        <v>818970</v>
       </c>
       <c r="F197" t="inlineStr">
         <is>
@@ -8692,13 +8692,13 @@
         </is>
       </c>
       <c r="C202" t="n">
-        <v>2488</v>
+        <v>2490</v>
       </c>
       <c r="D202" t="n">
         <v>371</v>
       </c>
       <c r="E202" t="n">
-        <v>17921444</v>
+        <v>17935894</v>
       </c>
       <c r="F202" t="inlineStr">
         <is>
@@ -8774,13 +8774,13 @@
         </is>
       </c>
       <c r="C204" t="n">
-        <v>263438</v>
+        <v>263633</v>
       </c>
       <c r="D204" t="n">
         <v>49753</v>
       </c>
       <c r="E204" t="n">
-        <v>1260034992</v>
+        <v>1260951452</v>
       </c>
       <c r="F204" t="inlineStr">
         <is>
@@ -8897,13 +8897,13 @@
         </is>
       </c>
       <c r="C207" t="n">
-        <v>153375</v>
+        <v>153452</v>
       </c>
       <c r="D207" t="n">
         <v>27104</v>
       </c>
       <c r="E207" t="n">
-        <v>743370883</v>
+        <v>743636344</v>
       </c>
       <c r="F207" t="inlineStr">
         <is>
@@ -9020,13 +9020,13 @@
         </is>
       </c>
       <c r="C210" t="n">
-        <v>12058</v>
+        <v>12061</v>
       </c>
       <c r="D210" t="n">
         <v>3233</v>
       </c>
       <c r="E210" t="n">
-        <v>42075028</v>
+        <v>42076834</v>
       </c>
       <c r="F210" t="inlineStr">
         <is>
@@ -9143,13 +9143,13 @@
         </is>
       </c>
       <c r="C213" t="n">
-        <v>23169</v>
+        <v>23184</v>
       </c>
       <c r="D213" t="n">
         <v>3536</v>
       </c>
       <c r="E213" t="n">
-        <v>86427396</v>
+        <v>86471597</v>
       </c>
       <c r="F213" t="inlineStr">
         <is>
@@ -9225,13 +9225,13 @@
         </is>
       </c>
       <c r="C215" t="n">
-        <v>229551</v>
+        <v>229608</v>
       </c>
       <c r="D215" t="n">
         <v>52400</v>
       </c>
       <c r="E215" t="n">
-        <v>407864263</v>
+        <v>407901146</v>
       </c>
       <c r="F215" t="inlineStr">
         <is>
@@ -9389,13 +9389,13 @@
         </is>
       </c>
       <c r="C219" t="n">
-        <v>3067</v>
+        <v>3070</v>
       </c>
       <c r="D219" t="n">
         <v>425</v>
       </c>
       <c r="E219" t="n">
-        <v>19178327</v>
+        <v>19182355</v>
       </c>
       <c r="F219" t="inlineStr">
         <is>
@@ -9471,13 +9471,13 @@
         </is>
       </c>
       <c r="C221" t="n">
-        <v>134303</v>
+        <v>134414</v>
       </c>
       <c r="D221" t="n">
         <v>27169</v>
       </c>
       <c r="E221" t="n">
-        <v>675616837</v>
+        <v>675959356</v>
       </c>
       <c r="F221" t="inlineStr">
         <is>
@@ -9594,13 +9594,13 @@
         </is>
       </c>
       <c r="C224" t="n">
-        <v>39236</v>
+        <v>39266</v>
       </c>
       <c r="D224" t="n">
         <v>7233</v>
       </c>
       <c r="E224" t="n">
-        <v>252459842</v>
+        <v>252631476</v>
       </c>
       <c r="F224" t="inlineStr">
         <is>
@@ -9676,13 +9676,13 @@
         </is>
       </c>
       <c r="C226" t="n">
-        <v>4402</v>
+        <v>4404</v>
       </c>
       <c r="D226" t="n">
         <v>1262</v>
       </c>
       <c r="E226" t="n">
-        <v>16275830</v>
+        <v>16279414</v>
       </c>
       <c r="F226" t="inlineStr">
         <is>
@@ -9758,13 +9758,13 @@
         </is>
       </c>
       <c r="C228" t="n">
-        <v>9756</v>
+        <v>9762</v>
       </c>
       <c r="D228" t="n">
         <v>1584</v>
       </c>
       <c r="E228" t="n">
-        <v>42548763</v>
+        <v>42570422</v>
       </c>
       <c r="F228" t="inlineStr">
         <is>
@@ -9799,13 +9799,13 @@
         </is>
       </c>
       <c r="C229" t="n">
-        <v>610610</v>
+        <v>610767</v>
       </c>
       <c r="D229" t="n">
         <v>121227</v>
       </c>
       <c r="E229" t="n">
-        <v>1038448197</v>
+        <v>1038582893</v>
       </c>
       <c r="F229" t="inlineStr">
         <is>
@@ -9840,13 +9840,13 @@
         </is>
       </c>
       <c r="C230" t="n">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="D230" t="n">
         <v>91</v>
       </c>
       <c r="E230" t="n">
-        <v>1112454</v>
+        <v>1113465</v>
       </c>
       <c r="F230" t="inlineStr">
         <is>
@@ -10045,13 +10045,13 @@
         </is>
       </c>
       <c r="C235" t="n">
-        <v>4217</v>
+        <v>4223</v>
       </c>
       <c r="D235" t="n">
         <v>601</v>
       </c>
       <c r="E235" t="n">
-        <v>33462046</v>
+        <v>33482886</v>
       </c>
       <c r="F235" t="inlineStr">
         <is>
@@ -10086,13 +10086,13 @@
         </is>
       </c>
       <c r="C236" t="n">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D236" t="n">
         <v>14</v>
       </c>
       <c r="E236" t="n">
-        <v>1588115</v>
+        <v>1626478</v>
       </c>
       <c r="F236" t="inlineStr">
         <is>
@@ -10127,13 +10127,13 @@
         </is>
       </c>
       <c r="C237" t="n">
-        <v>280866</v>
+        <v>281064</v>
       </c>
       <c r="D237" t="n">
         <v>49779</v>
       </c>
       <c r="E237" t="n">
-        <v>1422174774</v>
+        <v>1423158271</v>
       </c>
       <c r="F237" t="inlineStr">
         <is>
@@ -10168,13 +10168,13 @@
         </is>
       </c>
       <c r="C238" t="n">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="D238" t="n">
         <v>148</v>
       </c>
       <c r="E238" t="n">
-        <v>28244797</v>
+        <v>28341362</v>
       </c>
       <c r="F238" t="inlineStr">
         <is>
@@ -10250,13 +10250,13 @@
         </is>
       </c>
       <c r="C240" t="n">
-        <v>204127</v>
+        <v>204271</v>
       </c>
       <c r="D240" t="n">
         <v>33965</v>
       </c>
       <c r="E240" t="n">
-        <v>1048172538</v>
+        <v>1049370636</v>
       </c>
       <c r="F240" t="inlineStr">
         <is>
@@ -10373,13 +10373,13 @@
         </is>
       </c>
       <c r="C243" t="n">
-        <v>7154</v>
+        <v>7160</v>
       </c>
       <c r="D243" t="n">
         <v>1817</v>
       </c>
       <c r="E243" t="n">
-        <v>27386921</v>
+        <v>27403128</v>
       </c>
       <c r="F243" t="inlineStr">
         <is>
@@ -10496,13 +10496,13 @@
         </is>
       </c>
       <c r="C246" t="n">
-        <v>18583</v>
+        <v>18593</v>
       </c>
       <c r="D246" t="n">
         <v>2726</v>
       </c>
       <c r="E246" t="n">
-        <v>70171715</v>
+        <v>70192299</v>
       </c>
       <c r="F246" t="inlineStr">
         <is>
